--- a/XLSX/error_stepcount_low.xlsx
+++ b/XLSX/error_stepcount_low.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\RungeKutta\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08DA1B17-CE84-4602-BD65-2AD116D99F19}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1849EF-17AE-4821-B673-53ED53B3AD68}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -580,7 +580,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -593,14 +593,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="nl-NL"/>
-              <a:t>Error as a Function of Step Count </a:t>
+              <a:rPr lang="nl-NL" sz="2900" baseline="0"/>
+              <a:t>Error as a Function of Step Count for low Step Counts</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="nl-NL" baseline="0"/>
-              <a:t>for low Step Counts</a:t>
-            </a:r>
-            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -617,7 +612,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -635,7 +630,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1168748343795557"/>
+          <c:y val="9.4944013293302362E-2"/>
+          <c:w val="0.85502215937669046"/>
+          <c:h val="0.79197807108643792"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -3315,7 +3320,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3328,7 +3333,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nl-NL"/>
+                  <a:rPr lang="nl-NL" sz="1800" baseline="0"/>
                   <a:t>Step Count</a:t>
                 </a:r>
               </a:p>
@@ -3347,7 +3352,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3385,7 +3390,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3433,7 +3438,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3446,12 +3451,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nl-NL"/>
+                  <a:rPr lang="nl-NL" sz="1800" baseline="0"/>
                   <a:t>Error</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2747755409537839E-2"/>
+              <c:y val="0.24088105893238168"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3465,7 +3478,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3503,7 +3516,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3549,7 +3562,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4495,11 +4508,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+      <selection activeCell="V58" sqref="V58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
